--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06313966666666666</v>
+        <v>0.3111703333333333</v>
       </c>
       <c r="H2">
-        <v>0.189419</v>
+        <v>0.933511</v>
       </c>
       <c r="I2">
-        <v>0.02041955056700611</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="J2">
-        <v>0.02041955056700612</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N2">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q2">
-        <v>0.5502316564478889</v>
+        <v>2.305120268151666</v>
       </c>
       <c r="R2">
-        <v>4.952084908031</v>
+        <v>20.746082413365</v>
       </c>
       <c r="S2">
-        <v>0.003741382471124521</v>
+        <v>0.02000699947358081</v>
       </c>
       <c r="T2">
-        <v>0.003741382471124523</v>
+        <v>0.02000699947358082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06313966666666666</v>
+        <v>0.3111703333333333</v>
       </c>
       <c r="H3">
-        <v>0.189419</v>
+        <v>0.933511</v>
       </c>
       <c r="I3">
-        <v>0.02041955056700611</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="J3">
-        <v>0.02041955056700612</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P3">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q3">
-        <v>1.041016601146222</v>
+        <v>5.130427509133778</v>
       </c>
       <c r="R3">
-        <v>9.369149410316</v>
+        <v>46.173847582204</v>
       </c>
       <c r="S3">
-        <v>0.007078548131566788</v>
+        <v>0.04452889590736551</v>
       </c>
       <c r="T3">
-        <v>0.007078548131566793</v>
+        <v>0.04452889590736551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06313966666666666</v>
+        <v>0.3111703333333333</v>
       </c>
       <c r="H4">
-        <v>0.189419</v>
+        <v>0.933511</v>
       </c>
       <c r="I4">
-        <v>0.02041955056700611</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="J4">
-        <v>0.02041955056700612</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N4">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O4">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P4">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q4">
-        <v>0.2358829545361111</v>
+        <v>1.700411031188889</v>
       </c>
       <c r="R4">
-        <v>2.122946590825</v>
+        <v>15.3036992807</v>
       </c>
       <c r="S4">
-        <v>0.001603921441081336</v>
+        <v>0.01475850222476493</v>
       </c>
       <c r="T4">
-        <v>0.001603921441081337</v>
+        <v>0.01475850222476493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06313966666666666</v>
+        <v>0.3111703333333333</v>
       </c>
       <c r="H5">
-        <v>0.189419</v>
+        <v>0.933511</v>
       </c>
       <c r="I5">
-        <v>0.02041955056700611</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="J5">
-        <v>0.02041955056700612</v>
+        <v>0.1268479703884478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N5">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q5">
-        <v>1.175898608830111</v>
+        <v>5.478917745225111</v>
       </c>
       <c r="R5">
-        <v>10.583087479471</v>
+        <v>49.310259707026</v>
       </c>
       <c r="S5">
-        <v>0.007995698523233464</v>
+        <v>0.04755357278273652</v>
       </c>
       <c r="T5">
-        <v>0.007995698523233468</v>
+        <v>0.04755357278273652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.028978666666667</v>
+        <v>2.141926333333334</v>
       </c>
       <c r="H6">
-        <v>9.086936</v>
+        <v>6.425779</v>
       </c>
       <c r="I6">
-        <v>0.9795804494329938</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="J6">
-        <v>0.9795804494329939</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N6">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q6">
-        <v>26.39608406398489</v>
+        <v>15.86718679433167</v>
       </c>
       <c r="R6">
-        <v>237.564756575864</v>
+        <v>142.804681148985</v>
       </c>
       <c r="S6">
-        <v>0.1794841228526725</v>
+        <v>0.1377172385438915</v>
       </c>
       <c r="T6">
-        <v>0.1794841228526726</v>
+        <v>0.1377172385438915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.028978666666667</v>
+        <v>2.141926333333334</v>
       </c>
       <c r="H7">
-        <v>9.086936</v>
+        <v>6.425779</v>
       </c>
       <c r="I7">
-        <v>0.9795804494329938</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="J7">
-        <v>0.9795804494329939</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P7">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q7">
-        <v>49.94035038487822</v>
+        <v>35.31505611526178</v>
       </c>
       <c r="R7">
-        <v>449.463153463904</v>
+        <v>317.835505037356</v>
       </c>
       <c r="S7">
-        <v>0.3395768842854571</v>
+        <v>0.3065125576610616</v>
       </c>
       <c r="T7">
-        <v>0.3395768842854572</v>
+        <v>0.3065125576610616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.028978666666667</v>
+        <v>2.141926333333334</v>
       </c>
       <c r="H8">
-        <v>9.086936</v>
+        <v>6.425779</v>
       </c>
       <c r="I8">
-        <v>0.9795804494329938</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="J8">
-        <v>0.9795804494329939</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N8">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O8">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P8">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q8">
-        <v>11.31593615931111</v>
+        <v>11.70469924358889</v>
       </c>
       <c r="R8">
-        <v>101.8434254338</v>
+        <v>105.3422931923</v>
       </c>
       <c r="S8">
-        <v>0.07694440095309274</v>
+        <v>0.1015894549366293</v>
       </c>
       <c r="T8">
-        <v>0.07694440095309277</v>
+        <v>0.1015894549366293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.028978666666667</v>
+        <v>2.141926333333334</v>
       </c>
       <c r="H9">
-        <v>9.086936</v>
+        <v>6.425779</v>
       </c>
       <c r="I9">
-        <v>0.9795804494329938</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="J9">
-        <v>0.9795804494329939</v>
+        <v>0.8731520296115521</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N9">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q9">
-        <v>56.41100101324712</v>
+        <v>37.71387224145712</v>
       </c>
       <c r="R9">
-        <v>507.699009119224</v>
+        <v>339.424850173114</v>
       </c>
       <c r="S9">
-        <v>0.3835750413417714</v>
+        <v>0.3273327784699697</v>
       </c>
       <c r="T9">
-        <v>0.3835750413417716</v>
+        <v>0.3273327784699698</v>
       </c>
     </row>
   </sheetData>
